--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75889.74538552327</v>
+        <v>-78590.96203697995</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>225.1346772411287</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.10851687400105</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>250.4216648583278</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.23818194581458</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>75.02623601535653</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.407571245047</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>238.8165348032888</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -953,16 +953,16 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154325</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713664</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>1.080078506306648</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5293110515827</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.4739678040386</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>233.5841168789127</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563817</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>332.5680625991986</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.07469106267605</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.57372789033013</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.5965494037783</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298906</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.508928064093</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1582,10 +1582,10 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>119.8363203187922</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>46.52295781333289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060799</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272849</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.5758943588659</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>35.88641949135499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.13627195705715</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.61213096654746</v>
+        <v>102.1557845699815</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756225</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.5207962406033</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573441</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756234</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>107.4021082756233</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.1949878935053</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>235.8132367818428</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4331,7 +4331,7 @@
         <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.5684595882411</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>609.1154303071141</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
         <v>338.874007230231</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W3" t="n">
-        <v>783.5684595882411</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X3" t="n">
-        <v>783.5684595882411</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y3" t="n">
-        <v>783.5684595882411</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.14491040272</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>352.14491040272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>202.0282709903843</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>202.0282709903843</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>202.0282709903843</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>33.45891034538775</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4495,10 +4495,10 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>533.7933752329598</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.7933752329598</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>737.4383246437397</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="C5" t="n">
-        <v>737.4383246437397</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="D5" t="n">
-        <v>379.1726260369892</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="E5" t="n">
-        <v>379.1726260369892</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="F5" t="n">
-        <v>372.2271252877858</v>
+        <v>43.23945355631533</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541608</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541608</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275204</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924555</v>
+        <v>239.0325989245574</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825613</v>
+        <v>456.149911482565</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748831</v>
+        <v>729.4041931748886</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202375</v>
+        <v>1011.693823202383</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798408</v>
+        <v>1264.916654798418</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189404</v>
+        <v>1446.535482189415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.75091126173</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.75091126173</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261717</v>
+        <v>1389.996673518258</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850793</v>
+        <v>1177.398442107333</v>
       </c>
       <c r="U5" t="n">
-        <v>1068.50121198731</v>
+        <v>923.7469742438507</v>
       </c>
       <c r="V5" t="n">
-        <v>737.4383246437397</v>
+        <v>923.7469742438507</v>
       </c>
       <c r="W5" t="n">
-        <v>737.4383246437397</v>
+        <v>923.7469742438507</v>
       </c>
       <c r="X5" t="n">
-        <v>737.4383246437397</v>
+        <v>550.2812159827708</v>
       </c>
       <c r="Y5" t="n">
-        <v>737.4383246437397</v>
+        <v>162.717854553041</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314.4018759356628</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="C6" t="n">
-        <v>314.4018759356628</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="D6" t="n">
-        <v>314.4018759356628</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356628</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625477</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563381</v>
+        <v>49.44206107563459</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169437</v>
+        <v>159.6385680169454</v>
       </c>
       <c r="L6" t="n">
-        <v>539.4894185542188</v>
+        <v>539.4894185542237</v>
       </c>
       <c r="M6" t="n">
-        <v>785.813179224964</v>
+        <v>785.8131792249702</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584458</v>
+        <v>1053.065041797193</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749975</v>
+        <v>1275.328488962713</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948663</v>
+        <v>1434.381434161401</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.75091126173</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261717</v>
+        <v>1530.346686757979</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655812</v>
+        <v>1385.878273152074</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207497</v>
+        <v>1189.973630703758</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281009</v>
+        <v>1189.973630703758</v>
       </c>
       <c r="V6" t="n">
-        <v>731.1046632963582</v>
+        <v>954.8215224720152</v>
       </c>
       <c r="W6" t="n">
-        <v>730.0136749061495</v>
+        <v>700.5841657438136</v>
       </c>
       <c r="X6" t="n">
-        <v>522.1621747006167</v>
+        <v>555.6050636715079</v>
       </c>
       <c r="Y6" t="n">
-        <v>314.4018759356628</v>
+        <v>347.8447649065539</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345.966208085081</v>
+        <v>349.7478405654772</v>
       </c>
       <c r="C7" t="n">
-        <v>345.966208085081</v>
+        <v>180.8116576375703</v>
       </c>
       <c r="D7" t="n">
-        <v>345.966208085081</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="E7" t="n">
-        <v>345.966208085081</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="F7" t="n">
-        <v>199.0762605871706</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523435</v>
+        <v>30.6950182252346</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223263</v>
+        <v>157.4322756223271</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830382</v>
+        <v>375.1387655830397</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388141</v>
+        <v>615.0688576388164</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974809</v>
+        <v>854.7285647974841</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934019</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495181</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495181</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529571</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529571</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.691890529571</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="V7" t="n">
-        <v>794.7483381266285</v>
+        <v>776.007402323689</v>
       </c>
       <c r="W7" t="n">
-        <v>794.7483381266285</v>
+        <v>486.5902322867284</v>
       </c>
       <c r="X7" t="n">
-        <v>566.7587872286111</v>
+        <v>486.5902322867284</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.966208085081</v>
+        <v>486.5902322867284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>1041.721523379426</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>655.933270781182</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>648.9877700319786</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>233.2830197562674</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.386082837843</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.246750862032</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>846.306131908167</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>577.0499933865777</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="C10" t="n">
-        <v>577.0499933865777</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="D10" t="n">
-        <v>426.933353974242</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>279.0202603918489</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>132.1303128939385</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>132.1303128939385</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>132.1303128939385</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1586.371647458002</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1389.742899617863</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253778</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="W10" t="n">
-        <v>758.6984582168175</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="X10" t="n">
-        <v>758.6984582168175</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="Y10" t="n">
-        <v>758.6984582168175</v>
+        <v>656.8535021729066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1507.851230405994</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.888713465583</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>780.6230148588322</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>394.8347622605879</v>
+        <v>759.0737010522871</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605879</v>
+        <v>759.073701052287</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605879</v>
+        <v>344.4579364934321</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656955</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
@@ -5051,40 +5051,40 @@
         <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926738</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048266</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704695</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434581</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173501</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197689</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>612.5381326449921</v>
+        <v>612.5381326449929</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.49469860152</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302729</v>
+        <v>1656.304008302731</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635252</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
         <v>2356.438638438442</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.4612356009945</v>
+        <v>184.112340728136</v>
       </c>
       <c r="C13" t="n">
-        <v>687.4612356009945</v>
+        <v>184.1123407281359</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886587</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664814</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344802</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710542</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710542</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1607.309000509742</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1317.891830472782</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.902279574764</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.1097004312343</v>
+        <v>365.7608055583756</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273908</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>590.909656468498</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649657</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835326</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711968</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888037</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327684</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048615</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925256</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101326</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122224</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603205</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947403</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741516</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704556</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806538</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630081</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5735,37 +5735,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.974531143471</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155642</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032284</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>403.0086152208353</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098233</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819156</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695798</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871867</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892763</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041564</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536383</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,13 +7020,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048568</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925211</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101281</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122176</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536378</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>705.932442825731</v>
+        <v>526.5658826424039</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133952</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310021</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622256</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343187</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219829</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637045</v>
+        <v>34.43939438636974</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>187.2277845514381</v>
+        <v>187.22778455144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>44.41009271441624</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.41009271441779</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460951</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.13729225970229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.1065449541194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>132.3013230050358</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.1866975757043</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660561587</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.84515366406536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864988</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.2980548978892</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1584408891667</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0033420516649</v>
+        <v>46.45968844823089</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516658</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516656</v>
+        <v>144.6341900408529</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922505</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.62417772602129</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>40.2389747530639</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>999974.471140656</v>
+        <v>999974.4711406565</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1100626.900951731</v>
+        <v>1100626.90095173</v>
       </c>
     </row>
     <row r="7">
@@ -26314,22 +26314,22 @@
         <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097583</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26344,10 +26344,10 @@
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760022</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760023</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657052</v>
+        <v>132804.2190657087</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929394</v>
+        <v>265413.0723929362</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545763</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704304</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417379</v>
+        <v>30877.42926417453</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204961</v>
+        <v>65018.34502049534</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273052</v>
+        <v>81897.40371273077</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202394</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382064</v>
+        <v>216477.7990382055</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26430,19 +26430,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680584</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667481</v>
+        <v>72593.65038667506</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-666841.1411129235</v>
       </c>
       <c r="C6" t="n">
-        <v>-93458.9605448731</v>
+        <v>-93458.96054487562</v>
       </c>
       <c r="D6" t="n">
-        <v>-171476.9574396506</v>
+        <v>-171476.9574396475</v>
       </c>
       <c r="E6" t="n">
-        <v>-117350.5023693629</v>
+        <v>-117571.6336833384</v>
       </c>
       <c r="F6" t="n">
-        <v>20650.86506485913</v>
+        <v>20616.12713942475</v>
       </c>
       <c r="G6" t="n">
-        <v>209959.1338352897</v>
+        <v>209924.3959098539</v>
       </c>
       <c r="H6" t="n">
-        <v>209959.1338352896</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="I6" t="n">
-        <v>209959.1338352896</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="J6" t="n">
-        <v>140959.9794161754</v>
+        <v>140925.2414907397</v>
       </c>
       <c r="K6" t="n">
-        <v>179081.7045711157</v>
+        <v>179046.9666456792</v>
       </c>
       <c r="L6" t="n">
-        <v>144940.7888147933</v>
+        <v>144906.0508893584</v>
       </c>
       <c r="M6" t="n">
-        <v>128061.7301225589</v>
+        <v>128026.992197123</v>
       </c>
       <c r="N6" t="n">
-        <v>160119.5597032653</v>
+        <v>160084.82177783</v>
       </c>
       <c r="O6" t="n">
-        <v>209959.1338352893</v>
+        <v>209924.3959098536</v>
       </c>
       <c r="P6" t="n">
-        <v>209959.1338352893</v>
+        <v>209924.3959098537</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695734</v>
+        <v>717.3319511695761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154294</v>
+        <v>383.6877278154325</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.220823949008</v>
+        <v>969.2208239490089</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000951</v>
+        <v>103.2769374000978</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479657</v>
+        <v>216.7329409479632</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974104</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267247</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139232</v>
+        <v>119.9738478139263</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846095</v>
+        <v>256.8971042846063</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139232</v>
+        <v>119.9738478139261</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846095</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139232</v>
+        <v>119.9738478139263</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846095</v>
+        <v>256.8971042846063</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>101.6246675113629</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27433,19 +27433,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>144.5964234373403</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.42466677586629</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,10 +27515,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.273318302591775</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>140.1439773900422</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>177.1114073084715</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184336</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>173.6024561744811</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863671</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660377</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840621105</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333231</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951742</v>
+        <v>36.27346476951722</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714033</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>250.614904654613</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.24367415189479</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>44.35801237789866</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643735</v>
+        <v>1.905236112643394</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>18.55352644491529</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060237</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>37.16303807927045</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>24.72190414122453</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.98384452924348</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.404636572668096e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,10 +30460,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365117</v>
+        <v>2.883746537365128</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579051</v>
+        <v>29.53316922579062</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756928</v>
+        <v>244.7543826756937</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023583</v>
+        <v>366.8233736023597</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952461</v>
+        <v>455.0768316952478</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791129</v>
+        <v>506.3606591791149</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284016</v>
+        <v>514.5541040284036</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974772</v>
+        <v>485.878849397479</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562758</v>
+        <v>414.6863567562774</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868875</v>
+        <v>311.4121838868887</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277617</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020767</v>
+        <v>65.71337422020791</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892093</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270403</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316416</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189766</v>
+        <v>53.12316808189786</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862621</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453791</v>
+        <v>249.1510419453801</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438654</v>
+        <v>335.0143230438667</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874174</v>
+        <v>390.9459133874189</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189107</v>
+        <v>401.2930884189122</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348665</v>
+        <v>367.1047769348679</v>
       </c>
       <c r="P6" t="n">
-        <v>294.633948019065</v>
+        <v>294.6339480190661</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739553</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7976518939291</v>
+        <v>95.79765189392947</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6594416339919</v>
+        <v>28.65944163399201</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989035</v>
+        <v>6.219132670989058</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141853</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572047</v>
+        <v>38.90055892572062</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402904</v>
+        <v>91.45394400402938</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401171</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545443</v>
+        <v>192.3155201545451</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773271</v>
+        <v>202.7697513773278</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022531</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669595</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960656</v>
+        <v>156.4489225960662</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565096</v>
+        <v>58.16268574565118</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101757</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060645</v>
+        <v>5.526983886060666</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864664</v>
+        <v>0.0705572410986469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>489.9737736272083</v>
       </c>
       <c r="P12" t="n">
-        <v>368.5133829731087</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605173</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>614.5900475587096</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>614.7544723218302</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>663.4727207607269</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33740,16 +33740,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>188.4731159523455</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>730.8697159579444</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900651</v>
+        <v>63.70847814900745</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573777</v>
+        <v>146.7335225573791</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252588</v>
+        <v>219.3104167252606</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518402</v>
+        <v>276.0144259518421</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318107</v>
+        <v>285.1410404318127</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757905</v>
+        <v>255.7806379757923</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010063</v>
+        <v>183.4533610010079</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243799</v>
+        <v>89.10649401243919</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959541</v>
+        <v>18.93640691959595</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710201</v>
+        <v>111.3096029710211</v>
       </c>
       <c r="L6" t="n">
-        <v>383.6877278154294</v>
+        <v>383.6877278154325</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653991</v>
+        <v>248.8118794654006</v>
       </c>
       <c r="N6" t="n">
-        <v>314.3614690499936</v>
+        <v>269.9513763355789</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904221</v>
+        <v>224.5085324904234</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047347</v>
+        <v>160.6595406047359</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793382</v>
+        <v>101.3833102023523</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142343</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148605</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391676</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814816</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809992</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.727481860959</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491119</v>
+        <v>22.1550813749116</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839452</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>347.3775291827639</v>
       </c>
       <c r="P12" t="n">
-        <v>234.5389755587784</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655334</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>471.9938031142651</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>476.2000925419561</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>520.8764763162825</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>45.87687150790109</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>588.7356820359261</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
